--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_24_5.xlsx
@@ -518,111 +518,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_24</t>
+          <t>model_24_5_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9882628357058182</v>
+        <v>0.9908867955204478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7774644571897024</v>
+        <v>0.769998869606548</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8770884298615397</v>
+        <v>0.9407471844123165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9212081169080694</v>
+        <v>0.967814907228318</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9108237913282526</v>
+        <v>0.965238579309876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07848647167986629</v>
+        <v>0.06094004031721411</v>
       </c>
       <c r="H2" t="n">
-        <v>1.488096199454416</v>
+        <v>1.538018617998839</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2522092731013242</v>
+        <v>0.1015685138964735</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2352589623906982</v>
+        <v>0.2793067380387483</v>
       </c>
       <c r="K2" t="n">
-        <v>0.243734016295019</v>
+        <v>0.1904376259676109</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5163799945571522</v>
+        <v>0.2721274602328458</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2801543711596631</v>
+        <v>0.2468603660315161</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00494196391334</v>
+        <v>1.003837138728233</v>
       </c>
       <c r="O2" t="n">
-        <v>0.292081122739427</v>
+        <v>0.2573697228848829</v>
       </c>
       <c r="P2" t="n">
-        <v>167.0896580086671</v>
+        <v>167.5957296876722</v>
       </c>
       <c r="Q2" t="n">
-        <v>265.8185998229913</v>
+        <v>266.3246715019965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_23</t>
+          <t>model_24_5_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9883506913458051</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7774097344773502</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.878006216631505</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9220486158095105</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9116273555038228</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07789898061073565</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H3" t="n">
-        <v>1.488462130483889</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2503260139919156</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J3" t="n">
-        <v>0.232749377752229</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2415377362918688</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L3" t="n">
-        <v>0.530685727542119</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2791038885625488</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N3" t="n">
-        <v>1.004904972064924</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2909859189233547</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P3" t="n">
-        <v>167.1046848241219</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q3" t="n">
-        <v>265.8336266384461</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9884456598239657</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7773466780181999</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8790228626946974</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.922977394749441</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9125163164964967</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07726392595998614</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H4" t="n">
-        <v>1.488883789316576</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2482398998505843</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2299762041571339</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K4" t="n">
-        <v>0.239108052003859</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5465769365465656</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2779638932667086</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N4" t="n">
-        <v>1.004864985337278</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O4" t="n">
-        <v>0.289797391667655</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P4" t="n">
-        <v>167.1210562162491</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q4" t="n">
-        <v>265.8499980305733</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9885479508215035</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7772739440690208</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8801488313085994</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9240035287814541</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9134994774951953</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07657990558844398</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H5" t="n">
-        <v>1.489370161569645</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2459294605215021</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2269123450618572</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2364209027916796</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5642301168083944</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2767307456507931</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004821915443578</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2885117464047626</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P5" t="n">
-        <v>167.138841131565</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q5" t="n">
-        <v>265.8677829458892</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9886576016328689</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7771897017902371</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.881396187506292</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9251357683424931</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9145860818024025</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07584667010794838</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H6" t="n">
-        <v>1.489933490075772</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2433699390739763</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2235316731721277</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2334510251094613</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5838444186618225</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2754027416492951</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004775746680897</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2871272065235735</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P6" t="n">
-        <v>167.1580829503342</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q6" t="n">
-        <v>265.8870247646585</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.988774481591665</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7770919640150769</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8827766596340251</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9263844439322693</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9157864150950104</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07506509328529505</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H7" t="n">
-        <v>1.49058706302831</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2405372694442581</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2198033433989888</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2301703064216234</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6056332166590264</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2739800965130406</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N7" t="n">
-        <v>1.004726534066667</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2856439964385873</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P7" t="n">
-        <v>167.1787992627835</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q7" t="n">
-        <v>265.9077410771077</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9888982376630742</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7769782232780376</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8843039473007602</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9277603211859439</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.917111238412311</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07423753586593836</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H8" t="n">
-        <v>1.491347647860619</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2374033406220164</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2156952114141397</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2265493349448523</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6298397074028149</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2724656599755983</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N8" t="n">
-        <v>1.004674426247127</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2840650872024302</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P8" t="n">
-        <v>167.200970765032</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q8" t="n">
-        <v>265.9299125793563</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9890281831350929</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7768455848248258</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8859928886128869</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9292744816718417</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9185723551034864</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07336858989620486</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H9" t="n">
-        <v>1.49223460180799</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I9" t="n">
-        <v>0.233937705449002</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2111741895673881</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K9" t="n">
-        <v>0.222555850082463</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6567261266789732</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2708663690756105</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N9" t="n">
-        <v>1.004619712364171</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2823977111778414</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P9" t="n">
-        <v>167.224518731039</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q9" t="n">
-        <v>265.9534605453632</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.989163263395844</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7766903930907862</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8878599065425431</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E10" t="n">
-        <v>0.930939291824021</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9201825132006357</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07246530757057475</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.493272369648105</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2301066646903877</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2062033538212461</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2181550092558169</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6865938175461439</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2691938104239671</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004562836464908</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2806539482417238</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P10" t="n">
-        <v>167.2492946958298</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q10" t="n">
-        <v>265.978236510154</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9893018383871045</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7765084097441972</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8899226644242794</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9327670007427117</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9219551623662989</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07153865596593662</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H11" t="n">
-        <v>1.494489293124702</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2258739739408458</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2007461304767841</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2133100522088149</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L11" t="n">
-        <v>0.719777506916903</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2674671119332929</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004504489100166</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O11" t="n">
-        <v>0.278853740621543</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P11" t="n">
-        <v>167.2750346649933</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q11" t="n">
-        <v>266.0039764793175</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9894415599406677</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7762944350615055</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8921997454407381</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9347702307524804</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9239041372757474</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07060433729390124</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H12" t="n">
-        <v>1.495920142813124</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2212015013061954</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1947648314516266</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K12" t="n">
-        <v>0.207983166378911</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L12" t="n">
-        <v>0.75663176762787</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2657147667968441</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00444565897235</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O12" t="n">
-        <v>0.277026794524781</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P12" t="n">
-        <v>167.3013274032243</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q12" t="n">
-        <v>266.0302692175486</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="13">
@@ -1127,107 +1127,107 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9895792472506929</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7760421689728436</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8947123512354563</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9369620486587585</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9260445339521103</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06968362161777109</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H13" t="n">
-        <v>1.497607047309584</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2160457419227444</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1882204415202587</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2021330917215016</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7975675321579508</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2639765550532302</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004387685368129</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2752145835086472</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P13" t="n">
-        <v>167.3275799455837</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q13" t="n">
-        <v>266.0565217599079</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_12</t>
+          <t>model_24_5_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9897104956350009</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7757440872709891</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8974820771332641</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9393556535267662</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9283916751585185</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06880596306756036</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H14" t="n">
-        <v>1.499600321022426</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2103623831096638</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1810735505522667</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1957179484723062</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8430472587351814</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2623089077167612</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N14" t="n">
-        <v>1.004332422890526</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2734759409725588</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P14" t="n">
-        <v>167.3529297306102</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q14" t="n">
-        <v>266.0818715449344</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9898294872509616</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7753909344468597</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9005332144254136</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9419626063827093</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9309609938758978</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0680102655837248</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H15" t="n">
-        <v>1.501961855583499</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2041015801785931</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1732896393189854</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1886955556227296</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8935531514116147</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2607877788235576</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00428232115749</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2718900544732006</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P15" t="n">
-        <v>167.376193241467</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q15" t="n">
-        <v>266.1051350557912</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="16">
@@ -1292,437 +1292,437 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9899285304756997</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7749716146966428</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9038906646462027</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9447948430644914</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9337683179761925</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06734796308384911</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H16" t="n">
-        <v>1.504765848683989</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1972122362486017</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1648330694687194</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1810226528586605</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9496541726475543</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2595148610077063</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N16" t="n">
-        <v>1.004240618747074</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2705629459106254</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P16" t="n">
-        <v>167.395765240654</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q16" t="n">
-        <v>266.1247070549782</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_9</t>
+          <t>model_24_5_23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9899975151502944</v>
+        <v>0.9908867842581758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7744725824647958</v>
+        <v>0.7699988645254097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9075816480113061</v>
+        <v>0.9407468352473489</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9478609099639632</v>
+        <v>0.9678149219570742</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9368285862872938</v>
+        <v>0.9652385309157548</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06688666224718924</v>
+        <v>0.06094011562807837</v>
       </c>
       <c r="H17" t="n">
-        <v>1.508102879516182</v>
+        <v>1.538018651976434</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1896384966039683</v>
+        <v>0.101569112419371</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1556783229506217</v>
+        <v>0.2793066102205415</v>
       </c>
       <c r="K17" t="n">
-        <v>0.172658409777295</v>
+        <v>0.1904378910908814</v>
       </c>
       <c r="L17" t="n">
-        <v>1.011970546430471</v>
+        <v>0.2721279010257299</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2586245584765477</v>
+        <v>0.2468605185688436</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004211572568297</v>
+        <v>1.003837143470242</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2696347413575351</v>
+        <v>0.2573698819160402</v>
       </c>
       <c r="P17" t="n">
-        <v>167.4095114004538</v>
+        <v>167.5957272160356</v>
       </c>
       <c r="Q17" t="n">
-        <v>266.1384532147781</v>
+        <v>266.3246690303598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_8</t>
+          <t>model_24_5_6</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9900234652603862</v>
+        <v>0.9908867898986091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7738774586484085</v>
+        <v>0.7699988588655903</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9116338718673778</v>
+        <v>0.9407468239892115</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9511683309094211</v>
+        <v>0.9678149513448118</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9401562771441245</v>
+        <v>0.9652385664253776</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06671313374151563</v>
+        <v>0.06094007791047511</v>
       </c>
       <c r="H18" t="n">
-        <v>1.512082475216657</v>
+        <v>1.538018689823672</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1813235069570832</v>
+        <v>0.1015691317175643</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1458029349121124</v>
+        <v>0.2793063551896435</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1635632545828296</v>
+        <v>0.1904376965542912</v>
       </c>
       <c r="L18" t="n">
-        <v>1.081182726639285</v>
+        <v>0.2721262345944208</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2582888571764482</v>
+        <v>0.246860442174268</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004200646206153</v>
+        <v>1.003837141095322</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2692847485580928</v>
+        <v>0.2573698022691894</v>
       </c>
       <c r="P18" t="n">
-        <v>167.4147068755508</v>
+        <v>167.5957284538939</v>
       </c>
       <c r="Q18" t="n">
-        <v>266.1436486898751</v>
+        <v>266.3246702682181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_7</t>
+          <t>model_24_5_5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9899895043109725</v>
+        <v>0.9908867898986091</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7731663150417809</v>
+        <v>0.7699988588655903</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9160765975273363</v>
+        <v>0.9407468239892115</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9547190833291856</v>
+        <v>0.9678149513448118</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9437634857366224</v>
+        <v>0.9652385664253776</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06694023076662066</v>
+        <v>0.06094007791047511</v>
       </c>
       <c r="H19" t="n">
-        <v>1.516837895788691</v>
+        <v>1.538018689823672</v>
       </c>
       <c r="I19" t="n">
-        <v>0.172207224348176</v>
+        <v>0.1015691317175643</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1352010010935559</v>
+        <v>0.2793063551896435</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1537041290272715</v>
+        <v>0.1904376965542912</v>
       </c>
       <c r="L19" t="n">
-        <v>1.158061711233378</v>
+        <v>0.2721262345944208</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2587281020040549</v>
+        <v>0.246860442174268</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004214945553275</v>
+        <v>1.003837141095322</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2697426929473729</v>
+        <v>0.2573698022691894</v>
       </c>
       <c r="P19" t="n">
-        <v>167.4079102716796</v>
+        <v>167.5957284538939</v>
       </c>
       <c r="Q19" t="n">
-        <v>266.1368520860038</v>
+        <v>266.3246702682181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_6</t>
+          <t>model_24_5_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9898741273213837</v>
+        <v>0.9908867898986091</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7723148630257156</v>
+        <v>0.7699988588655903</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9209393725540005</v>
+        <v>0.9407468239892115</v>
       </c>
       <c r="E20" t="n">
-        <v>0.958511114997841</v>
+        <v>0.9678149513448118</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9476601348726943</v>
+        <v>0.9652385664253776</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0677117572272634</v>
+        <v>0.06094007791047511</v>
       </c>
       <c r="H20" t="n">
-        <v>1.522531559340695</v>
+        <v>1.538018689823672</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1622290184449509</v>
+        <v>0.1015691317175643</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1238786490858033</v>
+        <v>0.2793063551896435</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1430539123587957</v>
+        <v>0.1904376965542912</v>
       </c>
       <c r="L20" t="n">
-        <v>1.243451918820792</v>
+        <v>0.2721262345944208</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2602148289918609</v>
+        <v>0.246860442174268</v>
       </c>
       <c r="N20" t="n">
-        <v>1.004263525338365</v>
+        <v>1.003837141095322</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2712927129809989</v>
+        <v>0.2573698022691894</v>
       </c>
       <c r="P20" t="n">
-        <v>167.3849908951304</v>
+        <v>167.5957284538939</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.1139327094546</v>
+        <v>266.3246702682181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_5</t>
+          <t>model_24_5_9</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9896498653698733</v>
+        <v>0.9908867884719195</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7712936728334878</v>
+        <v>0.7699988586551698</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9262514968765723</v>
+        <v>0.9407467875091673</v>
       </c>
       <c r="E21" t="n">
-        <v>0.962534507404487</v>
+        <v>0.9678149516795784</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9518519302030088</v>
+        <v>0.9652385469884034</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06921139792964479</v>
+        <v>0.06094008745075526</v>
       </c>
       <c r="H21" t="n">
-        <v>1.529360262858271</v>
+        <v>1.538018691230755</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1513287670486791</v>
+        <v>0.1015691942500167</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1118654938503362</v>
+        <v>0.2793063522844914</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1315970100463746</v>
+        <v>0.1904378030381793</v>
       </c>
       <c r="L21" t="n">
-        <v>1.338296484722769</v>
+        <v>0.2721263909178222</v>
       </c>
       <c r="M21" t="n">
-        <v>0.263080592080915</v>
+        <v>0.2468604614974931</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004357951423211</v>
+        <v>1.003837141696034</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2742804775377015</v>
+        <v>0.2573698224150441</v>
       </c>
       <c r="P21" t="n">
-        <v>167.3411794399115</v>
+        <v>167.5957281407903</v>
       </c>
       <c r="Q21" t="n">
-        <v>266.0701212542357</v>
+        <v>266.3246699551145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_4</t>
+          <t>model_24_5_8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9892815881933223</v>
+        <v>0.9908867884719195</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7700665829107777</v>
+        <v>0.7699988586551698</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9320393467018961</v>
+        <v>0.9407467875091673</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9667695454411883</v>
+        <v>0.9678149516795784</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9563378334101341</v>
+        <v>0.9652385469884034</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07167406910500169</v>
+        <v>0.06094008745075526</v>
       </c>
       <c r="H22" t="n">
-        <v>1.537565818821663</v>
+        <v>1.538018691230755</v>
       </c>
       <c r="I22" t="n">
-        <v>0.139452347313579</v>
+        <v>0.1015691942500167</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09922040129636045</v>
+        <v>0.2793063522844914</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1193362599913016</v>
+        <v>0.1904378030381793</v>
       </c>
       <c r="L22" t="n">
-        <v>1.443655937557054</v>
+        <v>0.2721263909178222</v>
       </c>
       <c r="M22" t="n">
-        <v>0.267720132050247</v>
+        <v>0.2468604614974931</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004513015497549</v>
+        <v>1.003837141696034</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2791175323286997</v>
+        <v>0.2573698224150441</v>
       </c>
       <c r="P22" t="n">
-        <v>167.2712525100387</v>
+        <v>167.5957281407903</v>
       </c>
       <c r="Q22" t="n">
-        <v>266.000194324363</v>
+        <v>266.3246699551145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_5_3</t>
+          <t>model_24_5_7</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9887247636315987</v>
+        <v>0.9908867884719195</v>
       </c>
       <c r="C23" t="n">
-        <v>0.768589578755423</v>
+        <v>0.7699988586551698</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9383254466618796</v>
+        <v>0.9407467875091673</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9711833439765929</v>
+        <v>0.9678149516795784</v>
       </c>
       <c r="F23" t="n">
-        <v>0.961108372715146</v>
+        <v>0.9652385469884034</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0753975575131892</v>
+        <v>0.06094008745075526</v>
       </c>
       <c r="H23" t="n">
-        <v>1.547442552409499</v>
+        <v>1.538018691230755</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1265535396605346</v>
+        <v>0.1015691942500167</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08604156074968479</v>
+        <v>0.2793063522844914</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1062975502051097</v>
+        <v>0.1904378030381793</v>
       </c>
       <c r="L23" t="n">
-        <v>1.560694528207222</v>
+        <v>0.2721263909178222</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2745861568127374</v>
+        <v>0.2468604614974931</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00474746794459</v>
+        <v>1.003837141696034</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2862758579799599</v>
+        <v>0.2573698224150441</v>
       </c>
       <c r="P23" t="n">
-        <v>167.1699607964344</v>
+        <v>167.5957281407903</v>
       </c>
       <c r="Q23" t="n">
-        <v>265.8989026107586</v>
+        <v>266.3246699551145</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9879227599985534</v>
+        <v>0.9908868019031863</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7668083319808848</v>
+        <v>0.76999884789043</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9451219730940494</v>
+        <v>0.9407471294764995</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9757267698311692</v>
+        <v>0.9678149488190446</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9661413627698383</v>
+        <v>0.9652386036564655</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08076055950024996</v>
+        <v>0.06093999763581175</v>
       </c>
       <c r="H24" t="n">
-        <v>1.559353757792723</v>
+        <v>1.538018763214619</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1126073587669008</v>
+        <v>0.1015686080649825</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07247567540335308</v>
+        <v>0.2793063771086043</v>
       </c>
       <c r="K24" t="n">
-        <v>0.09254151708512694</v>
+        <v>0.1904374925867934</v>
       </c>
       <c r="L24" t="n">
-        <v>1.690723608842825</v>
+        <v>0.2721278785857653</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2841840240060126</v>
+        <v>0.24686027958303</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00508515368482</v>
+        <v>1.003837136040764</v>
       </c>
       <c r="O24" t="n">
-        <v>0.296282326249977</v>
+        <v>0.2573696327561058</v>
       </c>
       <c r="P24" t="n">
-        <v>167.0325331152476</v>
+        <v>167.5957310884398</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.7614749295718</v>
+        <v>266.3246729027641</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9868035331497105</v>
+        <v>0.9908867981913301</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7646555065916216</v>
+        <v>0.769998838050322</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9524220853025596</v>
+        <v>0.9407471996081684</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9803281391035736</v>
+        <v>0.9678149170906512</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9713950511064989</v>
+        <v>0.9652385894984682</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08824483459202848</v>
+        <v>0.06094002245701147</v>
       </c>
       <c r="H25" t="n">
-        <v>1.573749711083575</v>
+        <v>1.538018829015467</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09762784144731596</v>
+        <v>0.1015684878484271</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05873678101318762</v>
+        <v>0.2793066524520418</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07818227735370881</v>
+        <v>0.1904375701502344</v>
       </c>
       <c r="L25" t="n">
-        <v>1.835201843854712</v>
+        <v>0.2721282483998815</v>
       </c>
       <c r="M25" t="n">
-        <v>0.297060321470284</v>
+        <v>0.2468603298568068</v>
       </c>
       <c r="N25" t="n">
-        <v>1.005556407094859</v>
+        <v>1.003837137603651</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3097067943549127</v>
+        <v>0.2573696851701414</v>
       </c>
       <c r="P25" t="n">
-        <v>166.8552802328337</v>
+        <v>167.5957302738289</v>
       </c>
       <c r="Q25" t="n">
-        <v>265.5842220471579</v>
+        <v>266.3246720881531</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.985275385703443</v>
+        <v>0.9908868087710611</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7620465580768737</v>
+        <v>0.7699988366748977</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9601857041589145</v>
+        <v>0.9407472458751366</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9848877087668245</v>
+        <v>0.9678149589043255</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9767998447655569</v>
+        <v>0.9652386298544247</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09846356360169115</v>
+        <v>0.06093995171030184</v>
       </c>
       <c r="H26" t="n">
-        <v>1.591195761814798</v>
+        <v>1.538018838212936</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08169722835538935</v>
+        <v>0.1015684085396694</v>
       </c>
       <c r="J26" t="n">
-        <v>0.045122693040789</v>
+        <v>0.2793062895871263</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06341004061714743</v>
+        <v>0.1904373490633979</v>
       </c>
       <c r="L26" t="n">
-        <v>1.995752053507234</v>
+        <v>0.2721292518270806</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3137890431511132</v>
+        <v>0.2468601865637751</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00619983759855</v>
+        <v>1.003837133149027</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3271476923509225</v>
+        <v>0.2573695357768286</v>
       </c>
       <c r="P26" t="n">
-        <v>166.6361374238237</v>
+        <v>167.5957325956774</v>
       </c>
       <c r="Q26" t="n">
-        <v>265.3650792381479</v>
+        <v>266.3246744100016</v>
       </c>
     </row>
   </sheetData>
